--- a/data/10 Класс.xlsx
+++ b/data/10 Класс.xlsx
@@ -4,15 +4,15 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11760"/>
+    <workbookView windowWidth="28800" windowHeight="12210" activeTab="5"/>
   </bookViews>
   <sheets>
-    <sheet name="10T(ФИЗ)" sheetId="1" r:id="rId1"/>
-    <sheet name="10Т(ИНФ)" sheetId="2" r:id="rId2"/>
-    <sheet name="10Е" sheetId="3" r:id="rId3"/>
-    <sheet name="10Э" sheetId="4" r:id="rId4"/>
-    <sheet name="10Г(ИСТ)" sheetId="5" r:id="rId5"/>
-    <sheet name="10Г(АНГ)" sheetId="6" r:id="rId6"/>
+    <sheet name="Т(ФИЗ)" sheetId="1" r:id="rId1"/>
+    <sheet name="Т(ИНФ)" sheetId="2" r:id="rId2"/>
+    <sheet name="Е" sheetId="3" r:id="rId3"/>
+    <sheet name="Э" sheetId="4" r:id="rId4"/>
+    <sheet name="Г(ИСТ)" sheetId="5" r:id="rId5"/>
+    <sheet name="Г(АНГ)" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -1051,7 +1051,7 @@
   <sheetPr/>
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
@@ -1188,7 +1188,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="4"/>
@@ -1460,7 +1460,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="4"/>
@@ -1731,8 +1731,8 @@
   <sheetPr/>
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M33" sqref="M33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="4"/>
